--- a/public/DataAbsen/absen3.xlsx
+++ b/public/DataAbsen/absen3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA275EB8-2DE5-4784-A539-5663CDF76CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C015C9-9317-4C43-AA56-ECD5EBD920C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{96AC7B6E-3A0B-4306-94FA-FC061E1D8AC8}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,8 +506,8 @@
       <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
-        <v>4.1666666666666664E-2</v>
+      <c r="K2" s="2">
+        <v>1</v>
       </c>
       <c r="L2" s="3">
         <v>0.375</v>
@@ -544,8 +544,8 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
-        <v>8.3333333333333301E-2</v>
+      <c r="K3" s="2">
+        <v>0</v>
       </c>
       <c r="L3" s="3">
         <v>0.41666666666666702</v>
@@ -582,8 +582,8 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <v>0.125</v>
+      <c r="K4" s="2">
+        <v>1</v>
       </c>
       <c r="L4" s="3">
         <v>0.45833333333333298</v>
@@ -620,8 +620,8 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.16666666666666699</v>
+      <c r="K5" s="2">
+        <v>0</v>
       </c>
       <c r="L5" s="3">
         <v>0.5</v>
@@ -658,8 +658,8 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.20833333333333301</v>
+      <c r="K6" s="2">
+        <v>1</v>
       </c>
       <c r="L6" s="3">
         <v>0.54166666666666696</v>
@@ -696,8 +696,8 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
-        <v>0.25</v>
+      <c r="K7" s="2">
+        <v>0</v>
       </c>
       <c r="L7" s="3">
         <v>0.58333333333333304</v>
@@ -734,8 +734,8 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <v>0.29166666666666702</v>
+      <c r="K8" s="2">
+        <v>1</v>
       </c>
       <c r="L8" s="3">
         <v>0.625</v>
@@ -772,8 +772,8 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <v>0.33333333333333298</v>
+      <c r="K9" s="2">
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0.66666666666666696</v>
@@ -810,8 +810,8 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <v>0.375</v>
+      <c r="K10" s="2">
+        <v>1</v>
       </c>
       <c r="L10" s="3">
         <v>0.70833333333333304</v>
@@ -848,8 +848,8 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="3">
-        <v>0.41666666666666702</v>
+      <c r="K11" s="2">
+        <v>0</v>
       </c>
       <c r="L11" s="3">
         <v>0.75</v>
@@ -886,8 +886,8 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
-        <v>0.45833333333333298</v>
+      <c r="K12" s="2">
+        <v>1</v>
       </c>
       <c r="L12" s="3">
         <v>0.79166666666666696</v>
@@ -924,8 +924,8 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="3">
-        <v>0.5</v>
+      <c r="K13" s="2">
+        <v>0</v>
       </c>
       <c r="L13" s="3">
         <v>0.83333333333333304</v>
@@ -962,8 +962,8 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0.54166666666666696</v>
+      <c r="K14" s="2">
+        <v>1</v>
       </c>
       <c r="L14" s="3">
         <v>0.875</v>
@@ -1000,8 +1000,8 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
-        <v>0.58333333333333304</v>
+      <c r="K15" s="2">
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0.91666666666666696</v>
@@ -1038,8 +1038,8 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
-        <v>0.625</v>
+      <c r="K16" s="2">
+        <v>1</v>
       </c>
       <c r="L16" s="3">
         <v>0.95833333333333304</v>
@@ -1076,8 +1076,8 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="3">
-        <v>0.66666666666666696</v>
+      <c r="K17" s="2">
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>1</v>
